--- a/public/template/TemplateAssetSubClass.xlsx
+++ b/public/template/TemplateAssetSubClass.xlsx
@@ -24,19 +24,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Asset Class ID</t>
   </si>
   <si>
     <t>Nama</t>
   </si>
+  <si>
+    <t>Container &amp; Ramps</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,8 +62,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,6 +81,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -98,24 +113,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -397,13 +411,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -415,8 +429,12 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/TemplateAssetSubClass.xlsx
+++ b/public/template/TemplateAssetSubClass.xlsx
@@ -24,15 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Asset Class ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Nama</t>
   </si>
   <si>
     <t>Container &amp; Ramps</t>
+  </si>
+  <si>
+    <t>Asset Class</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,18 +425,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
